--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_26_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/50/Output_26_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>16396.26826084256</v>
+        <v>3262857.38390767</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16396.26826084256</v>
+        <v>3262857.38390767</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>50701.68926389369</v>
+        <v>3126435.447611202</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>50701.68926389369</v>
+        <v>3126435.447611202</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1267315461.152301</v>
+        <v>50726228.64506055</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>13497.4220037365</v>
+        <v>1364354.261356051</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>24720.13433404562</v>
+        <v>2341278.781279726</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>35951.03706951089</v>
+        <v>3318203.301203403</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>47814.44216291541</v>
+        <v>4293821.658643346</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>59677.99378583961</v>
+        <v>5269469.175457714</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>71541.54540876381</v>
+        <v>6245116.692272078</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>83405.097031688</v>
+        <v>7220764.209086442</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>95268.64865461226</v>
+        <v>8196411.725900803</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>107180.7894524993</v>
+        <v>9154962.566012269</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>119117.4915996546</v>
+        <v>10118401.1146281</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>131054.1937468098</v>
+        <v>11081839.66324393</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>142990.8958939651</v>
+        <v>12045278.21185976</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>154927.5980411203</v>
+        <v>13008716.7604756</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>166867.3718424309</v>
+        <v>13972148.40521668</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>178807.1456437414</v>
+        <v>14935580.04995777</v>
       </c>
     </row>
   </sheetData>
